--- a/template.xlsx
+++ b/template.xlsx
@@ -368,14 +368,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>slit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>volumn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>method_data</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -390,14 +382,6 @@
   <si>
     <t xml:space="preserve">     ºC      %</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wavelength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type_data</t>
@@ -440,6 +424,22 @@
   <si>
     <t>humidity %</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slitnm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volumnml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wavelengthnm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -888,6 +888,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +915,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,43 +957,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1284,138 +1284,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="51"/>
+      <c r="A2" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="53"/>
       <c r="C2" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="54"/>
+        <v>110</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="52"/>
+      <c r="G2" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="49" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>117</v>
+      <c r="G3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="73" t="s">
-        <v>103</v>
+      <c r="B4" s="54"/>
+      <c r="C4" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="51"/>
+      <c r="G4" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="73" t="s">
-        <v>104</v>
+      <c r="B5" s="54"/>
+      <c r="C5" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="E5" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1463,42 +1463,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="27" t="s">
         <v>20</v>
       </c>
@@ -1511,16 +1511,16 @@
       <c r="F3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="65" t="s">
-        <v>108</v>
+      <c r="G3" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1533,66 +1533,66 @@
       <c r="F4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="52"/>
+      <c r="E6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="54"/>
       <c r="G6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="54"/>
       <c r="G7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
@@ -2411,8 +2411,8 @@
       <c r="B156" s="31"/>
       <c r="C156" s="32"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="71"/>
+      <c r="E156" s="58"/>
+      <c r="F156" s="58"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="L156" s="25"/>
@@ -2423,8 +2423,8 @@
       <c r="B157" s="31"/>
       <c r="C157" s="32"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="L157" s="25"/>
@@ -2435,8 +2435,8 @@
       <c r="B158" s="31"/>
       <c r="C158" s="32"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="58"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
       <c r="L158" s="25"/>
@@ -2447,8 +2447,8 @@
       <c r="B159" s="31"/>
       <c r="C159" s="32"/>
       <c r="D159" s="10"/>
-      <c r="E159" s="71"/>
-      <c r="F159" s="71"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
       <c r="L159" s="25"/>
@@ -2459,8 +2459,8 @@
       <c r="B160" s="31"/>
       <c r="C160" s="32"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="71"/>
-      <c r="F160" s="71"/>
+      <c r="E160" s="58"/>
+      <c r="F160" s="58"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
       <c r="L160" s="25"/>
@@ -2471,8 +2471,8 @@
       <c r="B161" s="31"/>
       <c r="C161" s="32"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="71"/>
-      <c r="F161" s="71"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="58"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="L161" s="25"/>
@@ -2483,8 +2483,8 @@
       <c r="B162" s="33"/>
       <c r="C162" s="34"/>
       <c r="D162" s="35"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="71"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="58"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="L162" s="25"/>
@@ -2495,8 +2495,8 @@
       <c r="B163" s="33"/>
       <c r="C163" s="34"/>
       <c r="D163" s="35"/>
-      <c r="E163" s="71"/>
-      <c r="F163" s="71"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
       <c r="L163" s="25"/>
@@ -2507,8 +2507,8 @@
       <c r="B164" s="33"/>
       <c r="C164" s="34"/>
       <c r="D164" s="35"/>
-      <c r="E164" s="71"/>
-      <c r="F164" s="71"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="58"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
       <c r="L164" s="25"/>
@@ -2519,8 +2519,8 @@
       <c r="B165" s="33"/>
       <c r="C165" s="34"/>
       <c r="D165" s="35"/>
-      <c r="E165" s="71"/>
-      <c r="F165" s="71"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
       <c r="L165" s="25"/>
@@ -2531,8 +2531,8 @@
       <c r="B166" s="33"/>
       <c r="C166" s="34"/>
       <c r="D166" s="35"/>
-      <c r="E166" s="71"/>
-      <c r="F166" s="71"/>
+      <c r="E166" s="58"/>
+      <c r="F166" s="58"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
       <c r="L166" s="25"/>
@@ -2543,8 +2543,8 @@
       <c r="B167" s="33"/>
       <c r="C167" s="34"/>
       <c r="D167" s="35"/>
-      <c r="E167" s="71"/>
-      <c r="F167" s="71"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="58"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
       <c r="L167" s="25"/>
@@ -2555,8 +2555,8 @@
       <c r="B168" s="33"/>
       <c r="C168" s="34"/>
       <c r="D168" s="35"/>
-      <c r="E168" s="71"/>
-      <c r="F168" s="71"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
       <c r="L168" s="25"/>
@@ -2567,8 +2567,8 @@
       <c r="B169" s="33"/>
       <c r="C169" s="34"/>
       <c r="D169" s="35"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
       <c r="L169" s="25"/>
@@ -2579,8 +2579,8 @@
       <c r="B170" s="33"/>
       <c r="C170" s="34"/>
       <c r="D170" s="35"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="58"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
       <c r="L170" s="25"/>
@@ -2591,8 +2591,8 @@
       <c r="B171" s="33"/>
       <c r="C171" s="34"/>
       <c r="D171" s="35"/>
-      <c r="E171" s="71"/>
-      <c r="F171" s="71"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
       <c r="L171" s="25"/>
@@ -2603,8 +2603,8 @@
       <c r="B172" s="33"/>
       <c r="C172" s="34"/>
       <c r="D172" s="35"/>
-      <c r="E172" s="71"/>
-      <c r="F172" s="71"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="58"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
     </row>
@@ -2613,8 +2613,8 @@
       <c r="B173" s="33"/>
       <c r="C173" s="34"/>
       <c r="D173" s="35"/>
-      <c r="E173" s="71"/>
-      <c r="F173" s="71"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
     </row>
@@ -2623,8 +2623,8 @@
       <c r="B174" s="33"/>
       <c r="C174" s="34"/>
       <c r="D174" s="35"/>
-      <c r="E174" s="71"/>
-      <c r="F174" s="71"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
     </row>
@@ -2633,8 +2633,8 @@
       <c r="B175" s="33"/>
       <c r="C175" s="34"/>
       <c r="D175" s="35"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="71"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
     </row>
@@ -2660,26 +2660,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A5:B5"/>
@@ -2691,12 +2677,26 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
